--- a/06_납품현황/2017/02_광명호반/04_CCM/CCM3/PGS_CCMApp/SystemData/시리얼번호_CCM1(광명B3).xlsx
+++ b/06_납품현황/2017/02_광명호반/04_CCM/CCM3/PGS_CCMApp/SystemData/시리얼번호_CCM1(광명B3).xlsx
@@ -27716,8 +27716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A986" workbookViewId="0">
-      <selection activeCell="B1007" sqref="B1007"/>
+    <sheetView tabSelected="1" topLeftCell="A923" workbookViewId="0">
+      <selection activeCell="B930" sqref="B930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -47875,7 +47875,7 @@
         <v>141</v>
       </c>
       <c r="B930" s="1">
-        <v>2466</v>
+        <v>2456</v>
       </c>
       <c r="C930">
         <v>0</v>
